--- a/data/trans_camb/DC-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/DC-Provincia-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-11.19744482414355</v>
+        <v>-10.69295766898946</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-9.1256754998884</v>
+        <v>-8.486138070046618</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-6.468538232314791</v>
+        <v>-6.410054619544754</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.585284458893034</v>
+        <v>-2.902122854741369</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.832216168871036</v>
+        <v>-2.709019370281831</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-4.84098889001744</v>
+        <v>-5.216929181087602</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-4.358657169719268</v>
+        <v>-4.918303493594942</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-3.069797099995423</v>
+        <v>-3.639095602214197</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-4.233915337704359</v>
+        <v>-3.703470372682591</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.5828428407045229</v>
+        <v>0.1607826562166993</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.914593763759945</v>
+        <v>3.624649590291954</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.649768942108441</v>
+        <v>4.857566195192313</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12.43269444010998</v>
+        <v>12.71389812498983</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>11.95799013415833</v>
+        <v>12.55061500791912</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>7.45080646432034</v>
+        <v>7.334258156372932</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>4.917427862918581</v>
+        <v>4.741917310919122</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>6.081484367661292</v>
+        <v>5.548273101198731</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>4.13368217236257</v>
+        <v>4.478790860881142</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.6418131208236539</v>
+        <v>-0.6392783011488713</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.5171133591421035</v>
+        <v>-0.5236557250530546</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3876685858976672</v>
+        <v>-0.3672329457468595</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1056386132989113</v>
+        <v>-0.1108323340799873</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.07872728235312819</v>
+        <v>-0.1021212742885798</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2037584465371603</v>
+        <v>-0.2076781072603485</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2247652283380004</v>
+        <v>-0.2560952038282321</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1606148601049005</v>
+        <v>-0.1865314831620087</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.2167793794809421</v>
+        <v>-0.1942812947864135</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.03537447542795332</v>
+        <v>0.04891787479881247</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.2884244806243245</v>
+        <v>0.3651746837711972</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.4684441967411275</v>
+        <v>0.5222882243854143</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.7215248428864232</v>
+        <v>0.7302713391101835</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.7255974240918623</v>
+        <v>0.7580153326497874</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4473829452738809</v>
+        <v>0.4511851362576716</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3493007435674182</v>
+        <v>0.3194598661363817</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4345892287527441</v>
+        <v>0.3783783858299291</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.2830121264313008</v>
+        <v>0.3025138284371779</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-15.97598577854376</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-2.936075466859658</v>
+        <v>-2.936075466859656</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-24.74956709343155</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-20.15652525184057</v>
+        <v>-19.73080691046741</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-20.71573500586467</v>
+        <v>-20.44973929128081</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-9.174450249190457</v>
+        <v>-8.897708984036125</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-30.40421816329017</v>
+        <v>-30.0951977721516</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-38.70691771447606</v>
+        <v>-39.04025512727314</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-14.05285956226429</v>
+        <v>-13.76963071049378</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-23.74206031769967</v>
+        <v>-23.87442032498565</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-28.15707962338875</v>
+        <v>-28.53046434173715</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-9.897496819221271</v>
+        <v>-9.501992858493578</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-11.13346722279907</v>
+        <v>-10.85941945731156</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-11.71937986213179</v>
+        <v>-11.63069266175738</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.446270739850275</v>
+        <v>2.970853910277615</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-18.44624264948535</v>
+        <v>-18.99667945298089</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-28.39733063545725</v>
+        <v>-28.92325192752783</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-2.483666752525256</v>
+        <v>-2.376025986404678</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-16.51929247045769</v>
+        <v>-16.1906890140372</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-21.62216538953441</v>
+        <v>-21.46705511532338</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-1.499147419039098</v>
+        <v>-1.399513530914968</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.7213037111406911</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.1325615933684219</v>
+        <v>-0.1325615933684218</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.5517101626919128</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.7975341737458266</v>
+        <v>-0.7864159669769895</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.8138799441140573</v>
+        <v>-0.815977201564847</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3626251988148147</v>
+        <v>-0.3551317238857656</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.6370847260444995</v>
+        <v>-0.6354552862782519</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.8136573798586259</v>
+        <v>-0.8131203157954334</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2885936800294111</v>
+        <v>-0.2818956857666886</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.6641920842408662</v>
+        <v>-0.6634733246134898</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.7946464716833059</v>
+        <v>-0.7947574929889996</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.2779691389523655</v>
+        <v>-0.2661666111814776</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.5536328789478204</v>
+        <v>-0.5357848115014755</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.5885569622808654</v>
+        <v>-0.5965775176988579</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.1213666712598903</v>
+        <v>0.1525547707126416</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.4444625700775807</v>
+        <v>-0.4544211229246877</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.6845005054756005</v>
+        <v>-0.6758631508508072</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.05579405427316186</v>
+        <v>-0.0559485412990891</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.514944476848852</v>
+        <v>-0.5064545327990649</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.6820022169490083</v>
+        <v>-0.6762883919003412</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.04623689957523089</v>
+        <v>-0.04272418074991791</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-6.045055423844835</v>
+        <v>-6.247074768462394</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-6.604797914727841</v>
+        <v>-6.250218830359519</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7.036228873080809</v>
+        <v>7.422765257028694</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-8.518900828579284</v>
+        <v>-7.667595042534583</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-8.682505865814896</v>
+        <v>-9.281316776430183</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>9.149949903673312</v>
+        <v>10.51103037793183</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-5.476878885750834</v>
+        <v>-5.667494490716261</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-6.44103416740026</v>
+        <v>-6.190955127340791</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>10.00479717865622</v>
+        <v>10.26223362855463</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.45229568158257</v>
+        <v>2.933187410199045</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.35230973678779</v>
+        <v>2.541648801816019</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>18.20940070910535</v>
+        <v>18.42990853923655</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.681970229858946</v>
+        <v>4.856021276681257</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.829681236411935</v>
+        <v>3.391727699201474</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>21.37306387757055</v>
+        <v>21.98416414429</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.427504015297631</v>
+        <v>2.558264636636462</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.287235173218779</v>
+        <v>1.722207074545865</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>18.51120863040995</v>
+        <v>18.74316179096331</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>-0.1530181846327927</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.9132910865897044</v>
+        <v>0.913291086589704</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.4769556364821615</v>
+        <v>-0.5037798615958778</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.5404049532719672</v>
+        <v>-0.5249045032914773</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.528834730782729</v>
+        <v>0.5240306772238935</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.3313292488488385</v>
+        <v>-0.3187647328522219</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3484525570141883</v>
+        <v>-0.3762174150477485</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3641982240996504</v>
+        <v>0.4289608426304051</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.3013121977173885</v>
+        <v>-0.3119565168927922</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3593442854766762</v>
+        <v>-0.3442692817568798</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.5512507990678686</v>
+        <v>0.575362275062634</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.453753130254656</v>
+        <v>0.4000297941690312</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.3077573852038757</v>
+        <v>0.3295513768238502</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.305412178212583</v>
+        <v>2.341408329797171</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.2543200979211735</v>
+        <v>0.271407926478869</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2159024033548207</v>
+        <v>0.1902813137324837</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.150536637349343</v>
+        <v>1.2211950432234</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1740722366679109</v>
+        <v>0.1890854769182161</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.09111664335514542</v>
+        <v>0.1377473470423305</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.303483655602035</v>
+        <v>1.390650305439066</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>2.435487922863683</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>13.44671645326183</v>
+        <v>13.44671645326184</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-1.260386304547162</v>
@@ -1306,7 +1306,7 @@
         <v>-3.368874398099803</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>5.036471363174741</v>
+        <v>5.036471363174735</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-14.71859150733349</v>
+        <v>-13.83464434880877</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-15.00577986955042</v>
+        <v>-14.28579282361012</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-10.03220580268634</v>
+        <v>-10.65521663347215</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.3700827822591004</v>
+        <v>-0.07106123829848532</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-4.029214457570123</v>
+        <v>-3.565663149430087</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>7.661866977314811</v>
+        <v>7.704947888391015</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-5.242153444173597</v>
+        <v>-5.288838084668492</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-7.182998661427618</v>
+        <v>-7.318190222671466</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.218081638895349</v>
+        <v>0.4125472555699851</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-3.649016923748683</v>
+        <v>-3.255274615178072</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-4.401446477270791</v>
+        <v>-4.323445734729925</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.598820308359706</v>
+        <v>0.6643414185129167</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>12.2632072606421</v>
+        <v>11.77077452771594</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>8.234176970269552</v>
+        <v>8.25733780307576</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>19.33605980773341</v>
+        <v>19.74628424621631</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.888803905848786</v>
+        <v>2.779867056347927</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.921196614209301</v>
+        <v>0.5495122061242805</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>9.485375918494702</v>
+        <v>9.381589003126271</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.112441198530489</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6208057531759863</v>
+        <v>0.6208057531759869</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.06026052094667104</v>
@@ -1411,7 +1411,7 @@
         <v>-0.1610697652783013</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.2407994969343494</v>
+        <v>0.2407994969343491</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.612553538871708</v>
+        <v>-0.6121994672878308</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.6449077524282298</v>
+        <v>-0.6323179343230269</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.4354452107901437</v>
+        <v>-0.4601405264115743</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.02007901144058882</v>
+        <v>-0.007526247421892871</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1669286445365014</v>
+        <v>-0.1507612441485184</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2903958127300643</v>
+        <v>0.302604016231333</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2281668067403178</v>
+        <v>-0.2303082133093224</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.31836355963212</v>
+        <v>-0.3198920525860444</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.05051636681136964</v>
+        <v>0.01754070320429744</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.1696028136870898</v>
+        <v>-0.1799865736780859</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.2426866981819984</v>
+        <v>-0.2148864880748126</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.0932675106695646</v>
+        <v>0.04168575912749457</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.6326063017691191</v>
+        <v>0.6332435229312</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4378365148991823</v>
+        <v>0.4244932299657732</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.027050920671134</v>
+        <v>1.062769780904306</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1472654235275719</v>
+        <v>0.1452057010193167</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.04936350179350112</v>
+        <v>0.03081154784395925</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.5183399715075482</v>
+        <v>0.5138658009171569</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>3.195500533633738</v>
+        <v>3.824433275575017</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.943756001453948</v>
+        <v>-1.584652120274282</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4.971589497269364</v>
+        <v>4.895587548494617</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>11.75681507487921</v>
+        <v>10.63609302426634</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-6.939396745568898</v>
+        <v>-6.883086829551181</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>7.59798165854233</v>
+        <v>7.587492945975913</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>9.236523043566267</v>
+        <v>9.531895998911436</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-2.497215273528043</v>
+        <v>-2.522609094851601</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>8.382981573099537</v>
+        <v>8.691891750043226</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>16.82603605692708</v>
+        <v>16.48738853940236</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>9.198911460236673</v>
+        <v>9.290330791043916</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>16.08507502566113</v>
+        <v>16.12525123360375</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>28.68747985531294</v>
+        <v>28.02654561757971</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>8.920766893324345</v>
+        <v>8.227355786393149</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>21.47846161373189</v>
+        <v>21.79131095124193</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>20.50381721984231</v>
+        <v>20.76590569279232</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>6.595693287760376</v>
+        <v>7.071663788469172</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>17.78165930855107</v>
+        <v>17.90450621729717</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.03787475534024214</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.7720706346514421</v>
+        <v>0.7720706346514424</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>1.146049452105176</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.2875281343731292</v>
+        <v>0.3456043066235325</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2493527153701982</v>
+        <v>-0.2035269046333902</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.4874208027282125</v>
+        <v>0.4466961160249999</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.503621159209285</v>
+        <v>0.4532855021062218</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.2986840941334503</v>
+        <v>-0.2943285543678744</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2942983686773756</v>
+        <v>0.2857219926074437</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.6062393605886771</v>
+        <v>0.6086222036683387</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.1651023636750491</v>
+        <v>-0.1732427656389671</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.5091372763439422</v>
+        <v>0.5478900123674738</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>3.83496847885287</v>
+        <v>3.644124928984335</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.963690738398947</v>
+        <v>1.911539797261593</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>3.572560627530584</v>
+        <v>3.440258794969925</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.97700879346447</v>
+        <v>1.961198859653093</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.5855442930486682</v>
+        <v>0.5409670072720477</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.460167835881558</v>
+        <v>1.441899202195813</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.936754173885112</v>
+        <v>1.967955108878228</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.6052731927180169</v>
+        <v>0.6566538955732096</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.713864663270888</v>
+        <v>1.744580439601605</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>-11.68086818860283</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>16.46470367706589</v>
+        <v>16.46470367706587</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>-0.4714974639935948</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-7.771558627680928</v>
+        <v>-7.508766025085902</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-12.09109368676828</v>
+        <v>-12.28520745498906</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>5.130006188209796</v>
+        <v>5.939803637487027</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-7.881407243798049</v>
+        <v>-7.186642813291129</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-18.71110821632358</v>
+        <v>-18.67727382111004</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>9.054716504219584</v>
+        <v>9.284048774486028</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-5.69248772468717</v>
+        <v>-5.144297496378957</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-13.73880344079342</v>
+        <v>-13.70986081963374</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>9.078857604035411</v>
+        <v>8.941169010920024</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>4.937659064399014</v>
+        <v>5.616291738323651</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>-0.4731307832568414</v>
+        <v>-0.4742868921438494</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>17.78184966914357</v>
+        <v>18.46021617648901</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>7.787595058976482</v>
+        <v>7.395535391394503</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>-4.913578841946701</v>
+        <v>-5.516732483932299</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>23.81790633440119</v>
+        <v>22.95429718107364</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>4.424137114449388</v>
+        <v>4.862797524340712</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>-4.552532177506987</v>
+        <v>-4.501243134793686</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>18.99378318388769</v>
+        <v>18.50059278453843</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>-0.4327616134883129</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.6099967582757444</v>
+        <v>0.6099967582757436</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.02172936944870603</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.3881732185836413</v>
+        <v>-0.3942490309419201</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.6275528717881552</v>
+        <v>-0.6297854307362214</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.2513336773683842</v>
+        <v>0.2884480680440087</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.2471473484154787</v>
+        <v>-0.2350242128804907</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.6166596620843273</v>
+        <v>-0.6009320751357121</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2934332303583405</v>
+        <v>0.3000178606551242</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.2328376117848194</v>
+        <v>-0.2109678744750088</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.5653294065781099</v>
+        <v>-0.5642752474553516</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.3751775188381959</v>
+        <v>0.3570638042126878</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.3779349881819971</v>
+        <v>0.4103103368857414</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>-0.0184829456821466</v>
+        <v>-0.02522774157204145</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1.344856577840383</v>
+        <v>1.439773228722726</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.3498641590653105</v>
+        <v>0.3270921158611884</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>-0.2187644159188775</v>
+        <v>-0.2116373271975791</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1.022726346214141</v>
+        <v>1.028328893495926</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2349507668716395</v>
+        <v>0.2650170584758859</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>-0.2227968061259921</v>
+        <v>-0.2220468107418166</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.9927894814180627</v>
+        <v>0.9650204861378161</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>-5.372544870871308</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>14.89458649977361</v>
+        <v>14.89458649977362</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>6.188647144499063</v>
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-7.962014459579963</v>
+        <v>-8.18262453113249</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-9.281246578166199</v>
+        <v>-9.301085982285336</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>9.972289828041623</v>
+        <v>10.05658368491651</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1.462167844341974</v>
+        <v>1.184953721555972</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-2.719205001254338</v>
+        <v>-2.669240466737941</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>31.87441063004916</v>
+        <v>31.8586838960553</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-1.916482619937391</v>
+        <v>-1.928273808575873</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-4.906104462693358</v>
+        <v>-4.663101987040345</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>22.64049056538447</v>
+        <v>22.6980617054098</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-0.3903531540800836</v>
+        <v>-0.3540574831517128</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-1.665951884258775</v>
+        <v>-1.462584441779739</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>19.87219768701406</v>
+        <v>20.22591175662462</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>10.51470727997975</v>
+        <v>10.7885042486114</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>6.254724313270279</v>
+        <v>5.914831943545822</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>40.9103871623058</v>
+        <v>41.08871763388156</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>4.346622615259923</v>
+        <v>4.180809482904587</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>1.237448894259848</v>
+        <v>1.091458656740584</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>29.35346162055784</v>
+        <v>29.4015578839048</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>-0.3302037849200226</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.9154411838809431</v>
+        <v>0.9154411838809434</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.3048506256676479</v>
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.4366524232981581</v>
+        <v>-0.4360671324940035</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.5035120623747252</v>
+        <v>-0.4953435912125427</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.5496192816693256</v>
+        <v>0.5416097556203064</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.06176152194123367</v>
+        <v>0.04715414806712119</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.1215081801133825</v>
+        <v>-0.1195960380034234</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>1.396867932173464</v>
+        <v>1.357972249079943</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.09698611166039761</v>
+        <v>-0.09946239378332171</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.2466753910525455</v>
+        <v>-0.2373045853765648</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>1.137293050966126</v>
+        <v>1.154054678746656</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>-0.02775607335411982</v>
+        <v>-0.02349703750440518</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.1111613402506384</v>
+        <v>-0.09823117675990309</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.375731306022766</v>
+        <v>1.413043274946199</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.5776357911143964</v>
+        <v>0.5902458275493629</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.3562554003434665</v>
+        <v>0.3233329014854107</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>2.316347603191706</v>
+        <v>2.294514623325297</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.2615466675559889</v>
+        <v>0.2463729046096461</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.07518021849725767</v>
+        <v>0.06391422555903511</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>1.756513375527544</v>
+        <v>1.77028867265863</v>
       </c>
     </row>
     <row r="46">
@@ -2162,7 +2162,7 @@
         <v>-15.60346997890843</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>-2.705754883523554</v>
+        <v>-2.705754883523548</v>
       </c>
     </row>
     <row r="47">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-17.26545975177972</v>
+        <v>-16.81445993153885</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-16.58044227140991</v>
+        <v>-16.21507614966927</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-7.708884467685115</v>
+        <v>-7.289101638500202</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-20.78545435543029</v>
+        <v>-20.11450651261127</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-22.83576238173135</v>
+        <v>-22.83212238860477</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-5.811122994291005</v>
+        <v>-5.884101144660059</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-17.89935155052221</v>
+        <v>-17.65763590159101</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-18.30597698986734</v>
+        <v>-18.44482277331678</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-5.795084519501648</v>
+        <v>-5.786937603792627</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-9.946654823239108</v>
+        <v>-9.535001715770735</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-8.758764616894526</v>
+        <v>-8.72338976236113</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>0.3937418239418828</v>
+        <v>0.2931824043894878</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>-11.7405162564478</v>
+        <v>-10.88359631975247</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>-14.53079505876295</v>
+        <v>-14.15385603300509</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>2.939233616010921</v>
+        <v>2.491320268090888</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>-11.89055147302544</v>
+        <v>-11.61940100486098</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-12.85798386153053</v>
+        <v>-12.78473292039615</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>0.237620972126336</v>
+        <v>0.4290282599127743</v>
       </c>
     </row>
     <row r="49">
@@ -2267,7 +2267,7 @@
         <v>-0.5545747308897345</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>-0.09616728127858605</v>
+        <v>-0.09616728127858584</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.7055311639759269</v>
+        <v>-0.7013158080800743</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.6772249691355035</v>
+        <v>-0.6691922998377396</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.3124962371136245</v>
+        <v>-0.306385048912872</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.5651695761247276</v>
+        <v>-0.5613843419428821</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.6310359293387362</v>
+        <v>-0.6332297621740056</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.1558486552102442</v>
+        <v>-0.1646355501743602</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.5938260084613796</v>
+        <v>-0.5940103574241904</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.6173864934356009</v>
+        <v>-0.6259910029675567</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.1936088956124138</v>
+        <v>-0.19644170419638</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.4880255731382373</v>
+        <v>-0.4869322274423783</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.4367006678567776</v>
+        <v>-0.4377825755538483</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.02378146335758527</v>
+        <v>0.01230709225633398</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>-0.3684780127955274</v>
+        <v>-0.3481893297321574</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>-0.4505912692076234</v>
+        <v>-0.4423128994667592</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.0975901064772724</v>
+        <v>0.08253434062047899</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>-0.4434967383929453</v>
+        <v>-0.4421978522626853</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.4784025955708487</v>
+        <v>-0.4855043241072731</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.01177999646020011</v>
+        <v>0.01588568300336186</v>
       </c>
     </row>
     <row r="52">
@@ -2376,7 +2376,7 @@
         <v>-8.74668258825022</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>7.581607385470305</v>
+        <v>7.581607385470293</v>
       </c>
     </row>
     <row r="53">
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-8.811196017345695</v>
+        <v>-8.744992322661719</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-9.643786985946285</v>
+        <v>-9.729095140985129</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>1.788315239967711</v>
+        <v>1.972637451461936</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-5.962051817301654</v>
+        <v>-6.117382413531567</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-11.43799233125297</v>
+        <v>-11.59174476622671</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>8.802155864604238</v>
+        <v>8.698699506423445</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>-6.923503518362446</v>
+        <v>-6.906184658016675</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>-10.13807224077687</v>
+        <v>-10.01470498538617</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>6.065745690259326</v>
+        <v>6.162400892359519</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>-5.464767750458675</v>
+        <v>-5.459635944153502</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>-6.334922765548236</v>
+        <v>-6.430062522576777</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>5.711502379686655</v>
+        <v>5.919297247321068</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>-2.025411250731</v>
+        <v>-1.92100876555956</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>-7.463779136000966</v>
+        <v>-7.385493548163424</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>13.02498437629194</v>
+        <v>12.76461255091924</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>-4.295704112568412</v>
+        <v>-4.227704104329398</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>-7.357381569229762</v>
+        <v>-7.406845568813337</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>9.037809366919923</v>
+        <v>9.026938854136453</v>
       </c>
     </row>
     <row r="55">
@@ -2472,7 +2472,7 @@
         <v>-0.3406892328957377</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.3914225553074514</v>
+        <v>0.3914225553074512</v>
       </c>
       <c r="I55" s="6" t="n">
         <v>-0.2438211075025837</v>
@@ -2481,7 +2481,7 @@
         <v>-0.3841782708122352</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>0.3330049748506923</v>
+        <v>0.3330049748506918</v>
       </c>
     </row>
     <row r="56">
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.4785833146281317</v>
+        <v>-0.4708868111291492</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.5267561442356955</v>
+        <v>-0.5273644106645429</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.1007766087303676</v>
+        <v>0.105497566070118</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.2070974947300515</v>
+        <v>-0.212764751244352</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.3956077762046524</v>
+        <v>-0.4021671214261746</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.3048767814529256</v>
+        <v>0.2988697157101902</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>-0.2978903148338863</v>
+        <v>-0.2974420882755473</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>-0.4301416400380695</v>
+        <v>-0.4276621827844961</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>0.2574259058452115</v>
+        <v>0.2642030473892644</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>-0.3316170233133319</v>
+        <v>-0.3244797567866202</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>-0.3853029419033466</v>
+        <v>-0.3865135453880747</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.3440529836096179</v>
+        <v>0.3601589898020188</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>-0.07656519868722002</v>
+        <v>-0.07150168555962598</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>-0.2790051658375281</v>
+        <v>-0.274543439082097</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.4905729443771289</v>
+        <v>0.4768547742591303</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>-0.1943330837005847</v>
+        <v>-0.192509540272443</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>-0.3316628295830993</v>
+        <v>-0.3354408538469193</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.4117684511717784</v>
+        <v>0.4133457715495468</v>
       </c>
     </row>
     <row r="58">
